--- a/Internacional/Inputs/RV final.xlsx
+++ b/Internacional/Inputs/RV final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Documents\Tiara Silva\Proyecciones-S-OP\Internacional\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F73379-9BDA-47C6-92DD-A75CE3919342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B712732-FDB8-4571-A83E-DCC4B3EA75F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9305,7 +9305,7 @@
         <v>24000</v>
       </c>
       <c r="I187" s="7">
-        <v>17000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
